--- a/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpellConfig" sheetId="1" r:id="rId1"/>
+    <sheet name="#SpellTargetType" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,15 +28,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>1 选择的单个目标(最大距离)
 2 前方扇形（半径，角度）  
 3 前方矩形（宽 长）
 4 Caster为中心的圆形(半径)
-5 无目标
-6 Caster
-7 鼠标选择的位置（最大距离）</t>
+5 Caster
+6 鼠标选择的位置（最大距离）</t>
   </si>
   <si>
     <t>时间点(ms)+EffectId，可以配置多个
@@ -136,6 +136,42 @@
   </si>
   <si>
     <t>0,1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FrontSector</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Rectangle</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Caster</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Position</t>
   </si>
 </sst>
 </file>
@@ -163,14 +199,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -781,27 +817,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -1155,1068 +1184,1175 @@
   <sheetPr/>
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="9.61061946902655" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6814159292035" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.9115044247788" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.4336283185841" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.2035398230088" style="1" customWidth="1"/>
-    <col min="9" max="10" width="21.0442477876106" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="4" width="9.61061946902655" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.6814159292035" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.9115044247788" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.4336283185841" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.2035398230088" style="4" customWidth="1"/>
+    <col min="9" max="10" width="21.0442477876106" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="86.65" spans="1:10">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" s="4" customFormat="1" ht="15" spans="1:10">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.75" spans="1:10">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
+    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:10">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="2:17">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+    <row r="6" s="4" customFormat="1" ht="15" spans="2:17">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="2:17">
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15" spans="2:17">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>2000</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>1500</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" ht="15" spans="2:17">
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="6"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" ht="15" spans="2:17">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" ht="15" spans="2:17">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="6"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" ht="15" spans="2:17">
-      <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="6"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" ht="15" spans="2:17">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="13" ht="15" spans="2:17">
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="15" spans="2:17">
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="6"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="15" ht="15" spans="2:17">
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="6"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="1"/>
     </row>
     <row r="16" ht="15" spans="2:17">
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="6"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="1"/>
     </row>
     <row r="17" ht="15" spans="2:17">
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="6"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="1"/>
     </row>
     <row r="18" ht="15" spans="2:17">
-      <c r="B18" s="6"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="1"/>
     </row>
     <row r="19" ht="15" spans="2:17">
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="6"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="1"/>
     </row>
     <row r="20" ht="15" spans="2:17">
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="21" ht="15" spans="2:17">
-      <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="6"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" ht="15" spans="2:17">
-      <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="1"/>
     </row>
     <row r="23" ht="15" spans="2:17">
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="6"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="1"/>
     </row>
     <row r="24" ht="15" spans="2:17">
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="6"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="1"/>
     </row>
     <row r="25" ht="15" spans="2:17">
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="6"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="1"/>
     </row>
     <row r="26" ht="15" spans="2:17">
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="6"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" ht="15" spans="2:17">
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" ht="15" spans="2:17">
-      <c r="B28" s="6"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="6"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" ht="15" spans="2:17">
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="6"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" ht="15" spans="2:17">
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="6"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" ht="15" spans="2:17">
-      <c r="B31" s="6"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="6"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="1"/>
     </row>
     <row r="32" ht="15" spans="2:17">
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="6"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="1"/>
     </row>
     <row r="33" ht="15" spans="2:17">
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="6"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="1"/>
     </row>
     <row r="34" ht="15" spans="2:17">
-      <c r="B34" s="6"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="6"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="1"/>
     </row>
     <row r="35" ht="15" spans="2:17">
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="6"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="1"/>
     </row>
     <row r="36" ht="15" spans="2:17">
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="6"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="1"/>
     </row>
     <row r="37" ht="15" spans="2:17">
-      <c r="B37" s="6"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="6"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" ht="15" spans="2:17">
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="6"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="1"/>
     </row>
     <row r="39" ht="15" spans="2:17">
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="6"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="1"/>
     </row>
     <row r="40" ht="15" spans="2:17">
-      <c r="B40" s="6"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="6"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="1"/>
     </row>
     <row r="41" ht="15" spans="2:17">
-      <c r="B41" s="6"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="6"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="1"/>
     </row>
     <row r="42" ht="15" spans="2:17">
-      <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="6"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="1"/>
     </row>
     <row r="43" ht="15" spans="2:17">
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="6"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="1"/>
     </row>
     <row r="44" ht="15" spans="2:17">
-      <c r="B44" s="6"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="6"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="1"/>
     </row>
     <row r="45" ht="15" spans="2:17">
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="6"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="1"/>
     </row>
     <row r="46" ht="15" spans="2:17">
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="6"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="1"/>
     </row>
     <row r="47" ht="15" spans="2:17">
-      <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="6"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="1"/>
     </row>
     <row r="48" ht="15" spans="2:17">
-      <c r="B48" s="6"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="6"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="1"/>
     </row>
     <row r="49" ht="15" spans="2:17">
-      <c r="B49" s="6"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="6"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="1"/>
     </row>
     <row r="50" ht="15" spans="2:17">
-      <c r="B50" s="6"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="6"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="1"/>
     </row>
     <row r="51" ht="15" spans="2:17">
-      <c r="B51" s="6"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="6"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="1"/>
     </row>
     <row r="52" ht="15" spans="2:17">
-      <c r="B52" s="6"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="6"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="1"/>
     </row>
     <row r="53" ht="15" spans="2:17">
-      <c r="B53" s="6"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="6"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="1"/>
     </row>
     <row r="54" ht="15" spans="2:17">
-      <c r="B54" s="6"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="6"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="1"/>
     </row>
     <row r="55" ht="15" spans="2:17">
-      <c r="B55" s="6"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="6"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="14.283185840708" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="2:4">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="15" spans="2:4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="2:4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="2:4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="2:4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="2:4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="3:4">
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="3:4">
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="3:4">
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="3:4">
+      <c r="C11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SpellConfig" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>1 选择的单个目标(最大距离)
 2 前方扇形（半径，角度）  
@@ -38,10 +38,6 @@
 6 鼠标选择的位置（最大距离）</t>
   </si>
   <si>
-    <t>时间点(ms)+EffectId，可以配置多个
-时间点(ms),EffectId,时间点(ms)+EffectId</t>
-  </si>
-  <si>
     <t>1 移动打断
 2 朝向变化打断
 3 眩晕打断
@@ -63,6 +59,12 @@
     <t>吟唱时间</t>
   </si>
   <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>命中时间</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -84,6 +86,12 @@
     <t>Chanting</t>
   </si>
   <si>
+    <t>LastTime</t>
+  </si>
+  <si>
+    <t>HitTime</t>
+  </si>
+  <si>
     <t>Effects</t>
   </si>
   <si>
@@ -114,7 +122,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>100,2</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1500</t>
@@ -132,19 +143,16 @@
     <t>1,40000</t>
   </si>
   <si>
-    <t>2000,1</t>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>0,1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Select</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>FrontSector</t>
@@ -1182,10 +1190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1193,14 +1201,15 @@
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="4" width="9.61061946902655" style="4" customWidth="1"/>
     <col min="5" max="5" width="27.6814159292035" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.9115044247788" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.4336283185841" style="4" customWidth="1"/>
-    <col min="8" max="8" width="32.2035398230088" style="4" customWidth="1"/>
-    <col min="9" max="10" width="21.0442477876106" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="11.7610619469027" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.3628318584071" style="4" customWidth="1"/>
+    <col min="8" max="9" width="10.6283185840708" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.49557522123894" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21.0442477876106" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:10">
+    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1209,177 +1218,207 @@
         <v>0</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="15" spans="1:10">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="15" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+        <v>2</v>
+      </c>
       <c r="J2" s="1"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:10">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:12">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:10">
+      <c r="L3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:10">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="15" spans="2:17">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="15" spans="2:19">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="15" spans="2:17">
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15" spans="2:19">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7" s="3">
         <v>2000</v>
       </c>
       <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" ht="15" spans="2:17">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" ht="15" spans="2:19">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1394,10 +1433,12 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" ht="15" spans="2:17">
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" ht="15" spans="2:19">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1412,10 +1453,12 @@
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" ht="15" spans="2:17">
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" ht="15" spans="2:19">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1430,10 +1473,12 @@
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" ht="15" spans="2:17">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" ht="15" spans="2:19">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1448,10 +1493,12 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" ht="15" spans="2:17">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" ht="15" spans="2:19">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1466,10 +1513,12 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" ht="15" spans="2:17">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" ht="15" spans="2:19">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1484,10 +1533,12 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" ht="15" spans="2:17">
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" ht="15" spans="2:19">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1502,10 +1553,12 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" ht="15" spans="2:17">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" ht="15" spans="2:19">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1520,10 +1573,12 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" ht="15" spans="2:17">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" ht="15" spans="2:19">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1538,10 +1593,12 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" ht="15" spans="2:17">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" ht="15" spans="2:19">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1556,10 +1613,12 @@
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" ht="15" spans="2:17">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" ht="15" spans="2:19">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1574,10 +1633,12 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" ht="15" spans="2:17">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" ht="15" spans="2:19">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1592,10 +1653,12 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" ht="15" spans="2:17">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" ht="15" spans="2:19">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1610,10 +1673,12 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" ht="15" spans="2:17">
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" ht="15" spans="2:19">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1628,10 +1693,12 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" ht="15" spans="2:17">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" ht="15" spans="2:19">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1646,10 +1713,12 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" ht="15" spans="2:17">
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" ht="15" spans="2:19">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1664,10 +1733,12 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" ht="15" spans="2:17">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" ht="15" spans="2:19">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1682,10 +1753,12 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" ht="15" spans="2:17">
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" ht="15" spans="2:19">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1700,10 +1773,12 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" ht="15" spans="2:17">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" ht="15" spans="2:19">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1718,10 +1793,12 @@
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" ht="15" spans="2:17">
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" ht="15" spans="2:19">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1736,10 +1813,12 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" ht="15" spans="2:17">
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" ht="15" spans="2:19">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1754,10 +1833,12 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" ht="15" spans="2:17">
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" ht="15" spans="2:19">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1772,10 +1853,12 @@
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" ht="15" spans="2:17">
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" ht="15" spans="2:19">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1790,10 +1873,12 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" ht="15" spans="2:17">
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" ht="15" spans="2:19">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1808,10 +1893,12 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" ht="15" spans="2:17">
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" ht="15" spans="2:19">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1826,10 +1913,12 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" ht="15" spans="2:17">
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" ht="15" spans="2:19">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1844,10 +1933,12 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" ht="15" spans="2:17">
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" ht="15" spans="2:19">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1862,10 +1953,12 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" ht="15" spans="2:17">
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" ht="15" spans="2:19">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1880,10 +1973,12 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" ht="15" spans="2:17">
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" ht="15" spans="2:19">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1898,10 +1993,12 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" ht="15" spans="2:17">
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" ht="15" spans="2:19">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1916,10 +2013,12 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="1"/>
-    </row>
-    <row r="38" ht="15" spans="2:17">
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" ht="15" spans="2:19">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1934,10 +2033,12 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" ht="15" spans="2:17">
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" ht="15" spans="2:19">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1952,10 +2053,12 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" ht="15" spans="2:17">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" ht="15" spans="2:19">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1970,10 +2073,12 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" ht="15" spans="2:17">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" ht="15" spans="2:19">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1988,10 +2093,12 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" ht="15" spans="2:17">
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" ht="15" spans="2:19">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2006,10 +2113,12 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" ht="15" spans="2:17">
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" ht="15" spans="2:19">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2024,10 +2133,12 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" ht="15" spans="2:17">
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" ht="15" spans="2:19">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2042,10 +2153,12 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" ht="15" spans="2:17">
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" ht="15" spans="2:19">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2060,10 +2173,12 @@
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" ht="15" spans="2:17">
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" ht="15" spans="2:19">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2078,10 +2193,12 @@
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" ht="15" spans="2:17">
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" ht="15" spans="2:19">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2096,10 +2213,12 @@
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="1"/>
-    </row>
-    <row r="48" ht="15" spans="2:17">
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" ht="15" spans="2:19">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2114,10 +2233,12 @@
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" ht="15" spans="2:17">
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" ht="15" spans="2:19">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2132,10 +2253,12 @@
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" ht="15" spans="2:17">
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" ht="15" spans="2:19">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2150,10 +2273,12 @@
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" ht="15" spans="2:17">
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" ht="15" spans="2:19">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2168,10 +2293,12 @@
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" ht="15" spans="2:17">
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" ht="15" spans="2:19">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2186,10 +2313,12 @@
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="1"/>
-    </row>
-    <row r="53" ht="15" spans="2:17">
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" ht="15" spans="2:19">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2204,10 +2333,12 @@
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" ht="15" spans="2:17">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" ht="15" spans="2:19">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2222,10 +2353,12 @@
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="1"/>
-    </row>
-    <row r="55" ht="15" spans="2:17">
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" ht="15" spans="2:19">
       <c r="B55" s="1"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2241,7 +2374,9 @@
       <c r="N55" s="7"/>
       <c r="O55" s="7"/>
       <c r="P55" s="7"/>
-      <c r="Q55" s="1"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2255,7 +2390,7 @@
   <sheetPr/>
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2277,78 +2412,78 @@
     <row r="3" ht="15.75" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:4">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" ht="15" spans="3:4">
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="15" spans="3:4">
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" ht="15" spans="3:4">
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" ht="15" spans="3:4">
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SpellConfig" sheetId="1" r:id="rId1"/>
-    <sheet name="#SpellTargetType" sheetId="2" r:id="rId2"/>
+    <sheet name="#constdefine_SpellTargetType" sheetId="2" r:id="rId2"/>
+    <sheet name="#constdefine_SpellEffectTime" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>1 选择的单个目标(最大距离)
 2 前方扇形（半径，角度）  
@@ -38,15 +39,34 @@
 6 鼠标选择的位置（最大距离）</t>
   </si>
   <si>
+    <t>SpellEffectTime + EffectId
+可以配置多个
+1. 技能开始
+2. 技能命中
+3. 技能结束</t>
+  </si>
+  <si>
     <t>1 移动打断
 2 朝向变化打断
 3 眩晕打断
 4 骑马打断</t>
   </si>
   <si>
+    <t>NoNotice = 0,
+Self = 1,
+Broadcast = 2,
+BroadcastWithoutSelf = 3,</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -59,13 +79,16 @@
     <t>吟唱时间</t>
   </si>
   <si>
+    <t>命中时间</t>
+  </si>
+  <si>
     <t>持续时间</t>
   </si>
   <si>
-    <t>命中时间</t>
-  </si>
-  <si>
-    <t>效果</t>
+    <t>服务器效果</t>
+  </si>
+  <si>
+    <t>客户端效果</t>
   </si>
   <si>
     <t>Buffs</t>
@@ -77,6 +100,9 @@
     <t>打断情况</t>
   </si>
   <si>
+    <t>广播客户端类型</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -86,13 +112,16 @@
     <t>Chanting</t>
   </si>
   <si>
-    <t>LastTime</t>
-  </si>
-  <si>
     <t>HitTime</t>
   </si>
   <si>
-    <t>Effects</t>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>ServerEffects</t>
+  </si>
+  <si>
+    <t>ClientEffects</t>
   </si>
   <si>
     <t>CD</t>
@@ -101,6 +130,9 @@
     <t>Interrupt</t>
   </si>
   <si>
+    <t>NoticeClientType</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -125,36 +157,39 @@
     <t>100</t>
   </si>
   <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+  </si>
+  <si>
+    <t>1,40000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1,3</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>寒冰箭</t>
-  </si>
-  <si>
-    <t>1,40000</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
     <t>FrontSector</t>
   </si>
   <si>
@@ -180,6 +215,15 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
 </sst>
 </file>
@@ -192,7 +236,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +258,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -679,28 +736,19 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,123 +757,132 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
@@ -840,7 +897,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1190,10 +1255,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1201,15 +1266,18 @@
     <col min="1" max="2" width="9" style="4"/>
     <col min="3" max="4" width="9.61061946902655" style="4" customWidth="1"/>
     <col min="5" max="5" width="27.6814159292035" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.7610619469027" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.3628318584071" style="4" customWidth="1"/>
-    <col min="8" max="9" width="10.6283185840708" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.49557522123894" style="4" customWidth="1"/>
-    <col min="11" max="12" width="21.0442477876106" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="11.6194690265487" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.6283185840708" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.3628318584071" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.8141592920354" style="4" customWidth="1"/>
+    <col min="10" max="10" width="20.2477876106195" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.7787610619469" style="4" customWidth="1"/>
+    <col min="12" max="13" width="21.0442477876106" style="4" customWidth="1"/>
+    <col min="14" max="14" width="20.9823008849558" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:12">
+    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1220,205 +1288,235 @@
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="1"/>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="K1" s="1"/>
-      <c r="L1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="15" spans="1:12">
+      <c r="L1" s="1"/>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="15" spans="1:13">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:12">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:14">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:14">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:12">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:14">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="15" spans="2:19">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="15" spans="2:20">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="15" spans="2:19">
+      <c r="R6" s="3"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15" spans="2:20">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>2000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="3">
+        <v>42</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="3">
         <v>1500</v>
       </c>
-      <c r="L7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" ht="15" spans="2:19">
+      <c r="R7" s="3"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" ht="15" spans="2:20">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1435,10 +1533,11 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" ht="15" spans="2:19">
+      <c r="R8" s="3"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" ht="15" spans="2:20">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1455,10 +1554,11 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" ht="15" spans="2:19">
+      <c r="R9" s="3"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" ht="15" spans="2:20">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1475,10 +1575,11 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" ht="15" spans="2:19">
+      <c r="R10" s="3"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" ht="15" spans="2:20">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1495,10 +1596,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" ht="15" spans="2:19">
+      <c r="R11" s="3"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" ht="15" spans="2:20">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1515,10 +1617,11 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" ht="15" spans="2:19">
+      <c r="R12" s="3"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" ht="15" spans="2:20">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1535,10 +1638,11 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" ht="15" spans="2:19">
+      <c r="R13" s="3"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" ht="15" spans="2:20">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1555,10 +1659,11 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" ht="15" spans="2:19">
+      <c r="R14" s="3"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" ht="15" spans="2:20">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1575,10 +1680,11 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" ht="15" spans="2:19">
+      <c r="R15" s="3"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" ht="15" spans="2:20">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1595,10 +1701,11 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" ht="15" spans="2:19">
+      <c r="R16" s="3"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" ht="15" spans="2:20">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1615,10 +1722,11 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" ht="15" spans="2:19">
+      <c r="R17" s="3"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" ht="15" spans="2:20">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1635,10 +1743,11 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" ht="15" spans="2:19">
+      <c r="R18" s="3"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" ht="15" spans="2:20">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1655,10 +1764,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" ht="15" spans="2:19">
+      <c r="R19" s="3"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" ht="15" spans="2:20">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1675,10 +1785,11 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" ht="15" spans="2:19">
+      <c r="R20" s="3"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" ht="15" spans="2:20">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1695,10 +1806,11 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" ht="15" spans="2:19">
+      <c r="R21" s="3"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" ht="15" spans="2:20">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1715,10 +1827,11 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" ht="15" spans="2:19">
+      <c r="R22" s="3"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" ht="15" spans="2:20">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1735,10 +1848,11 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" ht="15" spans="2:19">
+      <c r="R23" s="3"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" ht="15" spans="2:20">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1755,10 +1869,11 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" ht="15" spans="2:19">
+      <c r="R24" s="3"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" ht="15" spans="2:20">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1775,10 +1890,11 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" ht="15" spans="2:19">
+      <c r="R25" s="3"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" ht="15" spans="2:20">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1795,10 +1911,11 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" ht="15" spans="2:19">
+      <c r="R26" s="3"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" ht="15" spans="2:20">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1815,10 +1932,11 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" ht="15" spans="2:19">
+      <c r="R27" s="3"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" ht="15" spans="2:20">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1835,10 +1953,11 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" ht="15" spans="2:19">
+      <c r="R28" s="3"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" ht="15" spans="2:20">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1855,10 +1974,11 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" ht="15" spans="2:19">
+      <c r="R29" s="3"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" ht="15" spans="2:20">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1875,10 +1995,11 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" ht="15" spans="2:19">
+      <c r="R30" s="3"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" ht="15" spans="2:20">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1895,10 +2016,11 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" ht="15" spans="2:19">
+      <c r="R31" s="3"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" ht="15" spans="2:20">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1915,10 +2037,11 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" ht="15" spans="2:19">
+      <c r="R32" s="3"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" ht="15" spans="2:20">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1935,10 +2058,11 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" ht="15" spans="2:19">
+      <c r="R33" s="3"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" ht="15" spans="2:20">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1955,10 +2079,11 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" ht="15" spans="2:19">
+      <c r="R34" s="3"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" ht="15" spans="2:20">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1975,10 +2100,11 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" ht="15" spans="2:19">
+      <c r="R35" s="3"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" ht="15" spans="2:20">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1995,10 +2121,11 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" ht="15" spans="2:19">
+      <c r="R36" s="3"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" ht="15" spans="2:20">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2015,10 +2142,11 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" ht="15" spans="2:19">
+      <c r="R37" s="3"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" ht="15" spans="2:20">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2035,10 +2163,11 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" ht="15" spans="2:19">
+      <c r="R38" s="3"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" ht="15" spans="2:20">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2055,10 +2184,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" ht="15" spans="2:19">
+      <c r="R39" s="3"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" ht="15" spans="2:20">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2075,10 +2205,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="1"/>
-    </row>
-    <row r="41" ht="15" spans="2:19">
+      <c r="R40" s="3"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" ht="15" spans="2:20">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2095,10 +2226,11 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" ht="15" spans="2:19">
+      <c r="R41" s="3"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" ht="15" spans="2:20">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2115,10 +2247,11 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" ht="15" spans="2:19">
+      <c r="R42" s="3"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" ht="15" spans="2:20">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2135,10 +2268,11 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" ht="15" spans="2:19">
+      <c r="R43" s="3"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" ht="15" spans="2:20">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2155,10 +2289,11 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" ht="15" spans="2:19">
+      <c r="R44" s="3"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" ht="15" spans="2:20">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2175,10 +2310,11 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" ht="15" spans="2:19">
+      <c r="R45" s="3"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" ht="15" spans="2:20">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2195,10 +2331,11 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" ht="15" spans="2:19">
+      <c r="R46" s="3"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" ht="15" spans="2:20">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2215,10 +2352,11 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" ht="15" spans="2:19">
+      <c r="R47" s="3"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" ht="15" spans="2:20">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2235,10 +2373,11 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" ht="15" spans="2:19">
+      <c r="R48" s="3"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" ht="15" spans="2:20">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2255,10 +2394,11 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="1"/>
-    </row>
-    <row r="50" ht="15" spans="2:19">
+      <c r="R49" s="3"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" ht="15" spans="2:20">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2275,10 +2415,11 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="1"/>
-    </row>
-    <row r="51" ht="15" spans="2:19">
+      <c r="R50" s="3"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" ht="15" spans="2:20">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2295,10 +2436,11 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="1"/>
-    </row>
-    <row r="52" ht="15" spans="2:19">
+      <c r="R51" s="3"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" ht="15" spans="2:20">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2315,10 +2457,11 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="1"/>
-    </row>
-    <row r="53" ht="15" spans="2:19">
+      <c r="R52" s="3"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" ht="15" spans="2:20">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2335,10 +2478,11 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" ht="15" spans="2:19">
+      <c r="R53" s="3"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" ht="15" spans="2:20">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2355,28 +2499,30 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="1"/>
-    </row>
-    <row r="55" ht="15" spans="2:19">
+      <c r="R54" s="3"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" ht="15" spans="2:20">
       <c r="B55" s="1"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="1"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2388,10 +2534,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="$A12:$XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2399,7 +2545,10 @@
     <col min="4" max="4" width="14.283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:4">
+    <row r="1" ht="15" spans="1:4">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2412,78 +2561,164 @@
     <row r="3" ht="15.75" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:4">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="15" spans="3:4">
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" ht="15" spans="3:4">
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="15" spans="3:4">
       <c r="C10" s="3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" ht="15" spans="3:4">
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="14.283185840708" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:4">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="15" spans="2:4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="2:4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="2:4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="2:4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="2:4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="3:4">
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="SpellConfig" sheetId="1" r:id="rId1"/>
@@ -1257,8 +1257,8 @@
   <sheetPr/>
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2536,7 +2536,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="$A12:$XFD27"/>
     </sheetView>
   </sheetViews>

--- a/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
@@ -4,32 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="SpellConfig" sheetId="1" r:id="rId1"/>
     <sheet name="#constdefine_SpellTargetType" sheetId="2" r:id="rId2"/>
-    <sheet name="#constdefine_SpellEffectTime" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>1 选择的单个目标(最大距离)
 2 前方扇形（半径，角度）  
@@ -39,11 +25,8 @@
 6 鼠标选择的位置（最大距离）</t>
   </si>
   <si>
-    <t>SpellEffectTime + EffectId
-可以配置多个
-1. 技能开始
-2. 技能命中
-3. 技能结束</t>
+    <t>EffectTimeType + EffectId
+可以配置多个</t>
   </si>
   <si>
     <t>1 移动打断
@@ -61,12 +44,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
@@ -88,9 +65,6 @@
     <t>服务器效果</t>
   </si>
   <si>
-    <t>客户端效果</t>
-  </si>
-  <si>
     <t>Buffs</t>
   </si>
   <si>
@@ -118,10 +92,7 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>ServerEffects</t>
-  </si>
-  <si>
-    <t>ClientEffects</t>
+    <t>Effects</t>
   </si>
   <si>
     <t>CD</t>
@@ -215,26 +186,17 @@
   </si>
   <si>
     <t>Position</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Hit</t>
-  </si>
-  <si>
-    <t>Finish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -276,26 +238,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,32 +253,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -346,8 +276,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,9 +307,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,6 +345,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,41 +388,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -448,13 +410,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,163 +524,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,6 +595,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -655,16 +626,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -680,21 +657,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -736,148 +698,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -909,52 +871,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1255,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1270,14 +1232,13 @@
     <col min="7" max="7" width="10.6283185840708" style="4" customWidth="1"/>
     <col min="8" max="8" width="11.3628318584071" style="4" customWidth="1"/>
     <col min="9" max="9" width="27.8141592920354" style="4" customWidth="1"/>
-    <col min="10" max="10" width="20.2477876106195" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.7787610619469" style="4" customWidth="1"/>
-    <col min="12" max="13" width="21.0442477876106" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.9823008849558" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="4"/>
+    <col min="10" max="10" width="18.7256637168142" style="4" customWidth="1"/>
+    <col min="11" max="12" width="21.0442477876106" style="4" customWidth="1"/>
+    <col min="13" max="13" width="31.0088495575221" style="4" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:14">
+    <row r="1" s="4" customFormat="1" ht="74.25" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1291,232 +1252,212 @@
       <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="15" spans="1:13">
+    <row r="2" s="4" customFormat="1" ht="15" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:14">
+    </row>
+    <row r="3" s="4" customFormat="1" ht="15.75" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:14">
+    </row>
+    <row r="4" s="4" customFormat="1" ht="15.75" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="L4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="M4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:14">
+    </row>
+    <row r="5" s="4" customFormat="1" ht="15.75" spans="1:13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="15" spans="2:20">
+        <v>27</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="15" spans="2:19">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="15" spans="2:20">
+      <c r="R6" s="8"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="15" spans="2:19">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3">
         <v>2000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="J7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="3">
         <v>1500</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="L7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" ht="15" spans="2:20">
+      <c r="R7" s="8"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" ht="15" spans="2:19">
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1533,11 +1474,10 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" ht="15" spans="2:20">
+      <c r="R8" s="8"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" ht="15" spans="2:19">
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1554,11 +1494,10 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" ht="15" spans="2:20">
+      <c r="R9" s="8"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" ht="15" spans="2:19">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1575,11 +1514,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" ht="15" spans="2:20">
+      <c r="R10" s="8"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" ht="15" spans="2:19">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1596,11 +1534,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="1"/>
-    </row>
-    <row r="12" ht="15" spans="2:20">
+      <c r="R11" s="8"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" ht="15" spans="2:19">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1617,11 +1554,10 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="1"/>
-    </row>
-    <row r="13" ht="15" spans="2:20">
+      <c r="R12" s="8"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" ht="15" spans="2:19">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1638,11 +1574,10 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="1"/>
-    </row>
-    <row r="14" ht="15" spans="2:20">
+      <c r="R13" s="8"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" ht="15" spans="2:19">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1659,11 +1594,10 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="1"/>
-    </row>
-    <row r="15" ht="15" spans="2:20">
+      <c r="R14" s="8"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" ht="15" spans="2:19">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1680,11 +1614,10 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="1"/>
-    </row>
-    <row r="16" ht="15" spans="2:20">
+      <c r="R15" s="8"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" ht="15" spans="2:19">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1701,11 +1634,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" ht="15" spans="2:20">
+      <c r="R16" s="8"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" ht="15" spans="2:19">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1722,11 +1654,10 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="1"/>
-    </row>
-    <row r="18" ht="15" spans="2:20">
+      <c r="R17" s="8"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" ht="15" spans="2:19">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1743,11 +1674,10 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" ht="15" spans="2:20">
+      <c r="R18" s="8"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" ht="15" spans="2:19">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1764,11 +1694,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" ht="15" spans="2:20">
+      <c r="R19" s="8"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" ht="15" spans="2:19">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1785,11 +1714,10 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="1"/>
-    </row>
-    <row r="21" ht="15" spans="2:20">
+      <c r="R20" s="8"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" ht="15" spans="2:19">
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1806,11 +1734,10 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="1"/>
-    </row>
-    <row r="22" ht="15" spans="2:20">
+      <c r="R21" s="8"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" ht="15" spans="2:19">
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1827,11 +1754,10 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="1"/>
-    </row>
-    <row r="23" ht="15" spans="2:20">
+      <c r="R22" s="8"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" ht="15" spans="2:19">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1848,11 +1774,10 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="1"/>
-    </row>
-    <row r="24" ht="15" spans="2:20">
+      <c r="R23" s="8"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" ht="15" spans="2:19">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1869,11 +1794,10 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="1"/>
-    </row>
-    <row r="25" ht="15" spans="2:20">
+      <c r="R24" s="8"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" ht="15" spans="2:19">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1890,11 +1814,10 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="1"/>
-    </row>
-    <row r="26" ht="15" spans="2:20">
+      <c r="R25" s="8"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" ht="15" spans="2:19">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1911,11 +1834,10 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="1"/>
-    </row>
-    <row r="27" ht="15" spans="2:20">
+      <c r="R26" s="8"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" ht="15" spans="2:19">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1932,11 +1854,10 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="1"/>
-    </row>
-    <row r="28" ht="15" spans="2:20">
+      <c r="R27" s="8"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" ht="15" spans="2:19">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1953,11 +1874,10 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="1"/>
-    </row>
-    <row r="29" ht="15" spans="2:20">
+      <c r="R28" s="8"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" ht="15" spans="2:19">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1974,11 +1894,10 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" ht="15" spans="2:20">
+      <c r="R29" s="8"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" ht="15" spans="2:19">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1995,11 +1914,10 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" ht="15" spans="2:20">
+      <c r="R30" s="8"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" ht="15" spans="2:19">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2016,11 +1934,10 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="1"/>
-    </row>
-    <row r="32" ht="15" spans="2:20">
+      <c r="R31" s="8"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" ht="15" spans="2:19">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -2037,11 +1954,10 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="1"/>
-    </row>
-    <row r="33" ht="15" spans="2:20">
+      <c r="R32" s="8"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" ht="15" spans="2:19">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2058,11 +1974,10 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="1"/>
-    </row>
-    <row r="34" ht="15" spans="2:20">
+      <c r="R33" s="8"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" ht="15" spans="2:19">
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2079,11 +1994,10 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="1"/>
-    </row>
-    <row r="35" ht="15" spans="2:20">
+      <c r="R34" s="8"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" ht="15" spans="2:19">
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2100,11 +2014,10 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="1"/>
-    </row>
-    <row r="36" ht="15" spans="2:20">
+      <c r="R35" s="8"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" ht="15" spans="2:19">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2121,11 +2034,10 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="1"/>
-    </row>
-    <row r="37" ht="15" spans="2:20">
+      <c r="R36" s="8"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" ht="15" spans="2:19">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -2142,11 +2054,10 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="1"/>
-    </row>
-    <row r="38" ht="15" spans="2:20">
+      <c r="R37" s="8"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" ht="15" spans="2:19">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -2163,11 +2074,10 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="1"/>
-    </row>
-    <row r="39" ht="15" spans="2:20">
+      <c r="R38" s="8"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" ht="15" spans="2:19">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2184,11 +2094,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="1"/>
-    </row>
-    <row r="40" ht="15" spans="2:20">
+      <c r="R39" s="8"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" ht="15" spans="2:19">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2205,11 +2114,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="1"/>
-    </row>
-    <row r="41" ht="15" spans="2:20">
+      <c r="R40" s="8"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" ht="15" spans="2:19">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2226,11 +2134,10 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="1"/>
-    </row>
-    <row r="42" ht="15" spans="2:20">
+      <c r="R41" s="8"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" ht="15" spans="2:19">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2247,11 +2154,10 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="8"/>
-      <c r="T42" s="1"/>
-    </row>
-    <row r="43" ht="15" spans="2:20">
+      <c r="R42" s="8"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" ht="15" spans="2:19">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2268,11 +2174,10 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="1"/>
-    </row>
-    <row r="44" ht="15" spans="2:20">
+      <c r="R43" s="8"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" ht="15" spans="2:19">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -2289,11 +2194,10 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="1"/>
-    </row>
-    <row r="45" ht="15" spans="2:20">
+      <c r="R44" s="8"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" ht="15" spans="2:19">
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2310,11 +2214,10 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="1"/>
-    </row>
-    <row r="46" ht="15" spans="2:20">
+      <c r="R45" s="8"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" ht="15" spans="2:19">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -2331,11 +2234,10 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="1"/>
-    </row>
-    <row r="47" ht="15" spans="2:20">
+      <c r="R46" s="8"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" ht="15" spans="2:19">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2352,11 +2254,10 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="1"/>
-    </row>
-    <row r="48" ht="15" spans="2:20">
+      <c r="R47" s="8"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" ht="15" spans="2:19">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2373,11 +2274,10 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="8"/>
-      <c r="T48" s="1"/>
-    </row>
-    <row r="49" ht="15" spans="2:20">
+      <c r="R48" s="8"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" ht="15" spans="2:19">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2394,11 +2294,10 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="8"/>
-      <c r="T49" s="1"/>
-    </row>
-    <row r="50" ht="15" spans="2:20">
+      <c r="R49" s="8"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" ht="15" spans="2:19">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2415,11 +2314,10 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="1"/>
-    </row>
-    <row r="51" ht="15" spans="2:20">
+      <c r="R50" s="8"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" ht="15" spans="2:19">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2436,11 +2334,10 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="1"/>
-    </row>
-    <row r="52" ht="15" spans="2:20">
+      <c r="R51" s="8"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" ht="15" spans="2:19">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2457,11 +2354,10 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="1"/>
-    </row>
-    <row r="53" ht="15" spans="2:20">
+      <c r="R52" s="8"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" ht="15" spans="2:19">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2478,11 +2374,10 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="1"/>
-    </row>
-    <row r="54" ht="15" spans="2:20">
+      <c r="R53" s="8"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" ht="15" spans="2:19">
       <c r="B54" s="1"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2499,11 +2394,10 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="1"/>
-    </row>
-    <row r="55" ht="15" spans="2:20">
+      <c r="R54" s="8"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" ht="15" spans="2:19">
       <c r="B55" s="1"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
@@ -2521,8 +2415,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="1"/>
+      <c r="S55" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2537,7 +2430,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD27"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2547,7 +2440,7 @@
   <sheetData>
     <row r="1" ht="15" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2561,164 +2454,78 @@
     <row r="3" ht="15.75" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="2:4">
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="15.75" spans="2:4">
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:4">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="15" spans="3:4">
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" ht="15" spans="3:4">
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="15" spans="3:4">
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="15" spans="3:4">
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
-  <cols>
-    <col min="4" max="4" width="14.283185840708" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:4">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="15" spans="2:4">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" ht="15.75" spans="2:4">
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" spans="2:4">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" spans="2:4">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="2:4">
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="2:4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="3:4">
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
+++ b/Packages/cn.etetet.wow/Excel/SpellConfig.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>1 选择的单个目标(最大距离)
 2 前方扇形（半径，角度）  
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>2,1000001</t>
   </si>
   <si>
     <t>1500</t>
@@ -1220,7 +1223,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1403,13 +1406,15 @@
       <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1422,32 +1427,32 @@
     <row r="7" s="4" customFormat="1" ht="15" spans="2:19">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3">
         <v>2000</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="3">
         <v>1500</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2440,7 +2445,7 @@
   <sheetData>
     <row r="1" ht="15" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2481,51 +2486,51 @@
     <row r="6" ht="15" spans="2:4">
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="15" spans="3:4">
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="15" spans="3:4">
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="15" spans="3:4">
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="15" spans="3:4">
       <c r="C11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
